--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>76.65494383784061</v>
+        <v>85.36364133333332</v>
       </c>
       <c r="H2">
-        <v>76.65494383784061</v>
+        <v>256.090924</v>
       </c>
       <c r="I2">
-        <v>0.8295151468778933</v>
+        <v>0.832590152283795</v>
       </c>
       <c r="J2">
-        <v>0.8295151468778933</v>
+        <v>0.8325901522837948</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>8088.377593108277</v>
+        <v>9604.552839884735</v>
       </c>
       <c r="R2">
-        <v>8088.377593108277</v>
+        <v>86440.97555896261</v>
       </c>
       <c r="S2">
-        <v>0.2608433241830109</v>
+        <v>0.2726993330604382</v>
       </c>
       <c r="T2">
-        <v>0.2608433241830109</v>
+        <v>0.2726993330604382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>76.65494383784061</v>
+        <v>85.36364133333332</v>
       </c>
       <c r="H3">
-        <v>76.65494383784061</v>
+        <v>256.090924</v>
       </c>
       <c r="I3">
-        <v>0.8295151468778933</v>
+        <v>0.832590152283795</v>
       </c>
       <c r="J3">
-        <v>0.8295151468778933</v>
+        <v>0.8325901522837948</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>8138.876604087016</v>
+        <v>9075.389944168859</v>
       </c>
       <c r="R3">
-        <v>8138.876604087016</v>
+        <v>81678.50949751974</v>
       </c>
       <c r="S3">
-        <v>0.2624718744998101</v>
+        <v>0.2576749616870198</v>
       </c>
       <c r="T3">
-        <v>0.2624718744998101</v>
+        <v>0.2576749616870198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>76.65494383784061</v>
+        <v>85.36364133333332</v>
       </c>
       <c r="H4">
-        <v>76.65494383784061</v>
+        <v>256.090924</v>
       </c>
       <c r="I4">
-        <v>0.8295151468778933</v>
+        <v>0.832590152283795</v>
       </c>
       <c r="J4">
-        <v>0.8295151468778933</v>
+        <v>0.8325901522837948</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>9494.821490061528</v>
+        <v>10644.13374313429</v>
       </c>
       <c r="R4">
-        <v>9494.821490061528</v>
+        <v>95797.20368820858</v>
       </c>
       <c r="S4">
-        <v>0.3061999481950722</v>
+        <v>0.302215857536337</v>
       </c>
       <c r="T4">
-        <v>0.3061999481950722</v>
+        <v>0.302215857536337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.8925143955802</v>
+        <v>11.230072</v>
       </c>
       <c r="H5">
-        <v>10.8925143955802</v>
+        <v>33.690216</v>
       </c>
       <c r="I5">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="J5">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>1149.342298863292</v>
+        <v>1263.533493124224</v>
       </c>
       <c r="R5">
-        <v>1149.342298863292</v>
+        <v>11371.80143811801</v>
       </c>
       <c r="S5">
-        <v>0.03706531531305963</v>
+        <v>0.03587514657045052</v>
       </c>
       <c r="T5">
-        <v>0.03706531531305963</v>
+        <v>0.03587514657045052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.8925143955802</v>
+        <v>11.230072</v>
       </c>
       <c r="H6">
-        <v>10.8925143955802</v>
+        <v>33.690216</v>
       </c>
       <c r="I6">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="J6">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>1156.518107447955</v>
+        <v>1193.919107821552</v>
       </c>
       <c r="R6">
-        <v>1156.518107447955</v>
+        <v>10745.27197039397</v>
       </c>
       <c r="S6">
-        <v>0.03729672905993013</v>
+        <v>0.03389860515723478</v>
       </c>
       <c r="T6">
-        <v>0.03729672905993013</v>
+        <v>0.03389860515723478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.8925143955802</v>
+        <v>11.230072</v>
       </c>
       <c r="H7">
-        <v>10.8925143955802</v>
+        <v>33.690216</v>
       </c>
       <c r="I7">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="J7">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>1349.195167147263</v>
+        <v>1400.296267192517</v>
       </c>
       <c r="R7">
-        <v>1349.195167147263</v>
+        <v>12602.66640473266</v>
       </c>
       <c r="S7">
-        <v>0.04351040098204698</v>
+        <v>0.03975821305961011</v>
       </c>
       <c r="T7">
-        <v>0.04351040098204698</v>
+        <v>0.03975821305961011</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.86187766159258</v>
+        <v>5.934092333333333</v>
       </c>
       <c r="H8">
-        <v>4.86187766159258</v>
+        <v>17.802277</v>
       </c>
       <c r="I8">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="J8">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>513.0093425108806</v>
+        <v>667.6648568645279</v>
       </c>
       <c r="R8">
-        <v>513.0093425108806</v>
+        <v>6008.983711780752</v>
       </c>
       <c r="S8">
-        <v>0.01654411662871629</v>
+        <v>0.01895681810596763</v>
       </c>
       <c r="T8">
-        <v>0.01654411662871629</v>
+        <v>0.01895681810596762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.86187766159258</v>
+        <v>5.934092333333333</v>
       </c>
       <c r="H9">
-        <v>4.86187766159258</v>
+        <v>17.802277</v>
       </c>
       <c r="I9">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="J9">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>516.2122672162908</v>
+        <v>630.8798576130273</v>
       </c>
       <c r="R9">
-        <v>516.2122672162908</v>
+        <v>5677.918718517246</v>
       </c>
       <c r="S9">
-        <v>0.01664740823666235</v>
+        <v>0.0179123920999118</v>
       </c>
       <c r="T9">
-        <v>0.01664740823666235</v>
+        <v>0.0179123920999118</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.86187766159258</v>
+        <v>5.934092333333333</v>
       </c>
       <c r="H10">
-        <v>4.86187766159258</v>
+        <v>17.802277</v>
       </c>
       <c r="I10">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="J10">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>602.213741112301</v>
+        <v>739.9317959441759</v>
       </c>
       <c r="R10">
-        <v>602.213741112301</v>
+        <v>6659.386163497582</v>
       </c>
       <c r="S10">
-        <v>0.01942088290169132</v>
+        <v>0.02100867272303023</v>
       </c>
       <c r="T10">
-        <v>0.01942088290169132</v>
+        <v>0.02100867272303024</v>
       </c>
     </row>
   </sheetData>
